--- a/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T09:02:08+00:00</t>
+    <t>2024-09-30T11:49:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil pour définir le dossier SDO</t>
+    <t>Profil SDO pour définir le dossier SDO</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T11:49:20+00:00</t>
+    <t>2024-09-30T12:00:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T12:00:20+00:00</t>
+    <t>2024-10-01T07:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T07:24:36+00:00</t>
+    <t>2024-10-01T08:28:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil SDO pour définir le dossier SDO</t>
+    <t>Profil SDO utilisé pour véhiculer les données de l’individu, la décision et l’évaluation contenus dans le document CDA</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T08:28:09+00:00</t>
+    <t>2024-10-01T09:52:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T09:52:34+00:00</t>
+    <t>2024-10-02T07:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T07:48:37+00:00</t>
+    <t>2024-10-02T12:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T12:24:50+00:00</t>
+    <t>2024-10-02T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T12:36:42+00:00</t>
+    <t>2024-10-02T13:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/180-rc-synthèse-des-ressources/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T13:23:06+00:00</t>
+    <t>2024-10-03T08:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
